--- a/target/test-classes/alphaTestData.xlsx
+++ b/target/test-classes/alphaTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19248" windowHeight="5904" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19248" windowHeight="5904" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginCredentials" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="96">
   <si>
     <t>Password</t>
   </si>
@@ -298,6 +298,27 @@
   </si>
   <si>
     <t>emma</t>
+  </si>
+  <si>
+    <t>P@ssw0rd9012</t>
+  </si>
+  <si>
+    <t>Damilola</t>
+  </si>
+  <si>
+    <t>dami</t>
+  </si>
+  <si>
+    <t>08034526462134</t>
+  </si>
+  <si>
+    <t>damilo@gmail.com</t>
+  </si>
+  <si>
+    <t>P@ssw0rd09</t>
+  </si>
+  <si>
+    <t>Check if user can register with existing user details</t>
   </si>
 </sst>
 </file>
@@ -827,7 +848,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,22 +889,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="G2" t="s">
         <v>56</v>
@@ -905,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1339,7 +1360,7 @@
         <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1503,7 +1524,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1550,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1537,7 +1558,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="P@ssw0rd90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1547,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
